--- a/dna-methylation/scripts/develop/entropy/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/entropy/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>begins</t>
   </si>
@@ -30,13 +30,10 @@
     <t>items</t>
   </si>
   <si>
-    <t>aux</t>
-  </si>
-  <si>
     <t>auto</t>
   </si>
   <si>
-    <t>Entropy</t>
+    <t>entropy</t>
   </si>
 </sst>
 </file>
@@ -404,37 +401,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
